--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="159">
   <si>
     <t>Missions</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>Accompagnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accompagnement </t>
   </si>
   <si>
     <t xml:space="preserve">Enquête mystère  </t>
@@ -679,6 +676,9 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -735,9 +735,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -756,19 +753,19 @@
   <autoFilter ref="A1:N65"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Missions" dataDxfId="13"/>
-    <tableColumn id="2" name="Porteurs" dataDxfId="12"/>
-    <tableColumn id="3" name="Phases" dataDxfId="11"/>
-    <tableColumn id="4" name="Etapes" dataDxfId="10"/>
-    <tableColumn id="5" name="Liste des livrables" dataDxfId="9"/>
-    <tableColumn id="6" name="Début" dataDxfId="8"/>
-    <tableColumn id="7" name="Elaboration" dataDxfId="7"/>
-    <tableColumn id="9" name="CTCQ" dataDxfId="6"/>
-    <tableColumn id="11" name="Approbation" dataDxfId="5"/>
-    <tableColumn id="13" name="Fin Prévisionnelle" dataDxfId="4"/>
-    <tableColumn id="14" name="Fin Effective" dataDxfId="3"/>
-    <tableColumn id="15" name="Statut" dataDxfId="2"/>
-    <tableColumn id="16" name="Focus sur les actions du jour" dataDxfId="1"/>
-    <tableColumn id="18" name="Commentaires" dataDxfId="0"/>
+    <tableColumn id="2" name="Porteurs" dataDxfId="0"/>
+    <tableColumn id="3" name="Phases" dataDxfId="12"/>
+    <tableColumn id="4" name="Etapes" dataDxfId="11"/>
+    <tableColumn id="5" name="Liste des livrables" dataDxfId="10"/>
+    <tableColumn id="6" name="Début" dataDxfId="9"/>
+    <tableColumn id="7" name="Elaboration" dataDxfId="8"/>
+    <tableColumn id="9" name="CTCQ" dataDxfId="7"/>
+    <tableColumn id="11" name="Approbation" dataDxfId="6"/>
+    <tableColumn id="13" name="Fin Prévisionnelle" dataDxfId="5"/>
+    <tableColumn id="14" name="Fin Effective" dataDxfId="4"/>
+    <tableColumn id="15" name="Statut" dataDxfId="3"/>
+    <tableColumn id="16" name="Focus sur les actions du jour" dataDxfId="2"/>
+    <tableColumn id="18" name="Commentaires" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,7 +1061,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2097,7 +2094,7 @@
     </row>
     <row r="24" spans="1:14" ht="42.75">
       <c r="A24" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>14</v>
@@ -2141,7 +2138,7 @@
     </row>
     <row r="25" spans="1:14" ht="28.5">
       <c r="A25" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>14</v>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="26" spans="1:14" ht="57">
       <c r="A26" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>14</v>
@@ -2229,7 +2226,7 @@
     </row>
     <row r="27" spans="1:14" ht="57">
       <c r="A27" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>14</v>
@@ -2273,7 +2270,7 @@
     </row>
     <row r="28" spans="1:14" ht="128.25">
       <c r="A28" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>14</v>
@@ -2317,7 +2314,7 @@
     </row>
     <row r="29" spans="1:14" ht="71.25">
       <c r="A29" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>14</v>
@@ -2361,7 +2358,7 @@
     </row>
     <row r="30" spans="1:14" ht="30">
       <c r="A30" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>14</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="31" spans="1:14" ht="42.75">
       <c r="A31" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>14</v>
@@ -2449,7 +2446,7 @@
     </row>
     <row r="32" spans="1:14" ht="42.75">
       <c r="A32" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="33" spans="1:14" ht="57">
       <c r="A33" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>14</v>
@@ -2537,7 +2534,7 @@
     </row>
     <row r="34" spans="1:14" ht="57">
       <c r="A34" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>14</v>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="35" spans="1:14" ht="57">
       <c r="A35" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>14</v>
@@ -3063,7 +3060,7 @@
     </row>
     <row r="46" spans="1:14" ht="42.75">
       <c r="A46" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>14</v>
@@ -3107,7 +3104,7 @@
     </row>
     <row r="47" spans="1:14" ht="28.5">
       <c r="A47" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>14</v>
@@ -3151,7 +3148,7 @@
     </row>
     <row r="48" spans="1:14" ht="57">
       <c r="A48" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>14</v>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="49" spans="1:14" ht="57">
       <c r="A49" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>14</v>
@@ -3239,7 +3236,7 @@
     </row>
     <row r="50" spans="1:14" ht="114">
       <c r="A50" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>14</v>
@@ -3283,7 +3280,7 @@
     </row>
     <row r="51" spans="1:14" ht="85.5">
       <c r="A51" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>14</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="52" spans="1:14" ht="30">
       <c r="A52" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>14</v>
@@ -3371,7 +3368,7 @@
     </row>
     <row r="53" spans="1:14" ht="42.75">
       <c r="A53" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>14</v>
@@ -3415,7 +3412,7 @@
     </row>
     <row r="54" spans="1:14" ht="42.75">
       <c r="A54" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>14</v>
@@ -3459,7 +3456,7 @@
     </row>
     <row r="55" spans="1:14" ht="42.75">
       <c r="A55" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>14</v>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="56" spans="1:14" ht="30">
       <c r="A56" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>14</v>
@@ -3545,7 +3542,7 @@
     </row>
     <row r="57" spans="1:14" ht="30">
       <c r="A57" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>14</v>
@@ -3589,7 +3586,7 @@
     </row>
     <row r="58" spans="1:14" ht="30">
       <c r="A58" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>14</v>
@@ -3633,7 +3630,7 @@
     </row>
     <row r="59" spans="1:14" ht="30">
       <c r="A59" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>14</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="60" spans="1:14" ht="42.75">
       <c r="A60" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>14</v>
@@ -3721,7 +3718,7 @@
     </row>
     <row r="61" spans="1:14" ht="30">
       <c r="A61" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>14</v>
@@ -3765,7 +3762,7 @@
     </row>
     <row r="62" spans="1:14" ht="60">
       <c r="A62" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>14</v>
@@ -3809,7 +3806,7 @@
     </row>
     <row r="63" spans="1:14" ht="17.25" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>14</v>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="64" spans="1:14" ht="30">
       <c r="A64" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>14</v>
@@ -3897,7 +3894,7 @@
     </row>
     <row r="65" spans="1:14" ht="32.25" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>14</v>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,14 +450,14 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Type de Missions</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Missions</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type de Missions</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Porteurs</t>
@@ -475,22 +475,22 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Liste des livrables</t>
+          <t>Livrables</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Seuil1</t>
+          <t>DuréeElaboration</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Seuil2</t>
+          <t>DuréeCTCQ</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Seuil3</t>
+          <t>DuréeApprobation</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -510,30 +510,35 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Conformité</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Approbation</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Fin Prévisionnelle</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Fin Effective</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Focus sur les actions du jour</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
@@ -591,25 +596,36 @@
       <c r="M2" s="2" t="n">
         <v>45836</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>45837</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="P2" s="2" t="n">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-06-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2025-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>45813</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Non entamé</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="R2" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>non entamé</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>26/05 : La mission a été nommée CO&amp;GO</t>
         </is>
@@ -667,25 +683,36 @@
       <c r="M3" s="2" t="n">
         <v>45837</v>
       </c>
-      <c r="N3" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="P3" s="2" t="n">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2025-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n">
         <v>45814</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="R3" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t xml:space="preserve">27/05 : La demande de création a été transmis à l'administrateur </t>
         </is>
@@ -744,25 +771,36 @@
       <c r="M4" s="2" t="n">
         <v>45838</v>
       </c>
-      <c r="N4" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>45840</v>
-      </c>
-      <c r="P4" s="2" t="n">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-07-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="n">
         <v>45815</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cours </t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="R4" s="2" t="n">
+        <v>45815</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>en cours</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>test</t>
         </is>
@@ -782,7 +820,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -823,28 +861,38 @@
       <c r="M5" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="N5" s="2" t="n">
-        <v>45840</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="P5" s="2" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-07-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2025-07-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="n">
         <v>45816</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Clôturé en retard</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>xx/XX : …...................................................................................
-Xx/xx : ….........................................................................................</t>
+      <c r="R5" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>clôturé en retard</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>bonj</t>
         </is>
       </c>
     </row>
@@ -903,25 +951,36 @@
       <c r="M6" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="N6" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="P6" s="2" t="n">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-07-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>En retard</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="R6" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>en retard</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -983,25 +1042,36 @@
       <c r="M7" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="N7" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="P7" s="2" t="n">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2025-07-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="n">
         <v>45818</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="R7" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1060,25 +1130,36 @@
       <c r="M8" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="N8" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>45844</v>
-      </c>
-      <c r="P8" s="2" t="n">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-07-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025-07-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="R8" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1137,25 +1218,36 @@
       <c r="M9" s="2" t="n">
         <v>45843</v>
       </c>
-      <c r="N9" s="2" t="n">
-        <v>45844</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>45845</v>
-      </c>
-      <c r="P9" s="2" t="n">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-07-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2025-07-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="n">
         <v>45820</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="R9" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1214,25 +1306,36 @@
       <c r="M10" s="2" t="n">
         <v>45844</v>
       </c>
-      <c r="N10" s="2" t="n">
-        <v>45845</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="P10" s="2" t="n">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-07-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2025-07-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="n">
         <v>45821</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="R10" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1293,25 +1396,36 @@
       <c r="M11" s="2" t="n">
         <v>45845</v>
       </c>
-      <c r="N11" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="P11" s="2" t="n">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-07-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2025-07-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="n">
         <v>45822</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="R11" s="2" t="n">
+        <v>45822</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1372,25 +1486,36 @@
       <c r="M12" s="2" t="n">
         <v>45846</v>
       </c>
-      <c r="N12" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="P12" s="2" t="n">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-07-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2025-07-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="n">
         <v>45823</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="R12" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1451,25 +1576,36 @@
       <c r="M13" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="N13" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="P13" s="2" t="n">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-07-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2025-07-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="n">
         <v>45824</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="R13" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1528,23 +1664,34 @@
       <c r="M14" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="N14" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>45850</v>
-      </c>
-      <c r="P14" s="2" t="n">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-07-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2025-07-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="n">
         <v>45825</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
+      <c r="R14" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1605,25 +1752,36 @@
       <c r="M15" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="N15" s="2" t="n">
-        <v>45850</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>45851</v>
-      </c>
-      <c r="P15" s="2" t="n">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-07-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2025-07-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="n">
         <v>45826</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" t="inlineStr">
+      <c r="R15" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1684,25 +1842,36 @@
       <c r="M16" s="2" t="n">
         <v>45850</v>
       </c>
-      <c r="N16" s="2" t="n">
-        <v>45851</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>45852</v>
-      </c>
-      <c r="P16" s="2" t="n">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-07-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2025-07-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="n">
         <v>45827</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="inlineStr">
+      <c r="R16" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1762,25 +1931,36 @@
       <c r="M17" s="2" t="n">
         <v>45851</v>
       </c>
-      <c r="N17" s="2" t="n">
-        <v>45852</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="P17" s="2" t="n">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-07-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2025-07-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="n">
         <v>45828</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" t="inlineStr">
+      <c r="R17" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1840,25 +2020,36 @@
       <c r="M18" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="N18" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>45854</v>
-      </c>
-      <c r="P18" s="2" t="n">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-07-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2025-07-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="n">
         <v>45829</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="inlineStr">
+      <c r="R18" s="2" t="n">
+        <v>45829</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1917,25 +2108,36 @@
       <c r="M19" s="2" t="n">
         <v>45853</v>
       </c>
-      <c r="N19" s="2" t="n">
-        <v>45854</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="P19" s="2" t="n">
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-07-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2025-07-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="n">
         <v>45830</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="inlineStr">
+      <c r="R19" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -1994,25 +2196,36 @@
       <c r="M20" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="N20" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="P20" s="2" t="n">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-07-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2025-07-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="n">
         <v>45831</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" t="inlineStr">
+      <c r="R20" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2071,25 +2284,32 @@
       <c r="M21" s="2" t="n">
         <v>45855</v>
       </c>
-      <c r="N21" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>45857</v>
-      </c>
-      <c r="P21" s="2" t="n">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-07-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2025-07-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="n">
         <v>45832</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" t="inlineStr">
+      <c r="R21" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2101,7 +2321,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2150,25 +2370,32 @@
       <c r="M22" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="N22" s="2" t="n">
-        <v>45857</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>45858</v>
-      </c>
-      <c r="P22" s="2" t="n">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-07-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2025-07-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="n">
         <v>45833</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" t="inlineStr">
+      <c r="R22" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2187,7 +2414,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2223,25 +2454,32 @@
       <c r="M23" s="2" t="n">
         <v>45857</v>
       </c>
-      <c r="N23" s="2" t="n">
-        <v>45858</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="P23" s="2" t="n">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-07-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2025-07-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="n">
         <v>45834</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" t="inlineStr">
+      <c r="R23" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2260,7 +2498,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2291,30 +2533,37 @@
         <v>3</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>45824</v>
+        <v>25569</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>45858</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>45860</v>
-      </c>
-      <c r="P24" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>45859</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>45860</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R24" s="2" t="n">
         <v>45835</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Non entamé</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T24" t="inlineStr">
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>non entamé</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>26/05 : La mission a été nommée CO&amp;GO</t>
         </is>
@@ -2332,7 +2581,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2363,30 +2616,37 @@
         <v>3</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>45825</v>
+        <v>25569</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>45860</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>45861</v>
-      </c>
-      <c r="P25" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>45860</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>45861</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R25" s="2" t="n">
         <v>45836</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" t="inlineStr">
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="inlineStr">
         <is>
           <t xml:space="preserve">27/05 : La demande de création a été transmis à l'administrateur </t>
         </is>
@@ -2404,7 +2664,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2436,30 +2700,37 @@
         <v>3</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>45826</v>
+        <v>25569</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>45860</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>45861</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>45862</v>
-      </c>
-      <c r="P26" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>45861</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>45862</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R26" s="2" t="n">
         <v>45837</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cours </t>
-        </is>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
-      <c r="T26" t="inlineStr">
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>en cours</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2478,7 +2749,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2512,30 +2787,37 @@
         <v>3</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>45827</v>
+        <v>25569</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>45861</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>45862</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="P27" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>45862</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>45863</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R27" s="2" t="n">
         <v>45838</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Clôturé en retard</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" t="inlineStr">
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>clôturé en retard</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2554,7 +2836,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2588,30 +2874,37 @@
         <v>3</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>45828</v>
+        <v>25569</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>45862</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>45864</v>
-      </c>
-      <c r="P28" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>45863</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>45864</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R28" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>En retard</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" t="inlineStr">
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>en retard</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2630,7 +2923,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2664,30 +2961,37 @@
         <v>3</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>45829</v>
+        <v>25569</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>45864</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>45865</v>
-      </c>
-      <c r="P29" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>45864</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>45865</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R29" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" t="inlineStr">
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2706,7 +3010,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2737,30 +3045,41 @@
         <v>3</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>45830</v>
+        <v>25569</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>45864</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>45865</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>45866</v>
-      </c>
-      <c r="P30" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>45865</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>45866</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R30" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" t="inlineStr">
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2779,7 +3098,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2810,30 +3133,41 @@
         <v>3</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>45831</v>
+        <v>25569</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>45865</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>45866</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>45867</v>
-      </c>
-      <c r="P31" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>45866</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>45867</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R31" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" t="inlineStr">
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2852,7 +3186,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2883,30 +3221,41 @@
         <v>3</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>45832</v>
+        <v>25569</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>45866</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>45867</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>45868</v>
-      </c>
-      <c r="P32" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>45867</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>45868</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R32" s="2" t="n">
         <v>45843</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
-      <c r="T32" t="inlineStr">
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -2925,7 +3274,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -2958,30 +3311,41 @@
         <v>3</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>45833</v>
+        <v>25569</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>45867</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>45868</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="P33" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>45868</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Non Applicable</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>45869</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R33" s="2" t="n">
         <v>45844</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
-      <c r="T33" t="inlineStr">
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3000,7 +3364,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3033,30 +3401,41 @@
         <v>3</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>45834</v>
+        <v>25569</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>45868</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="P34" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>45869</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>45870</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R34" s="2" t="n">
         <v>45845</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" t="inlineStr">
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3075,7 +3454,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3108,30 +3491,37 @@
         <v>3</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>45835</v>
+        <v>25569</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="O35" s="2" t="n">
-        <v>45871</v>
-      </c>
-      <c r="P35" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>45870</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>45871</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R35" s="2" t="n">
         <v>45846</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
-      <c r="T35" t="inlineStr">
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3150,7 +3540,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3181,28 +3575,35 @@
         <v>3</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>45836</v>
+        <v>25569</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>45871</v>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>45872</v>
-      </c>
-      <c r="P36" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>45871</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>45872</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R36" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3221,7 +3622,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3254,30 +3659,37 @@
         <v>3</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>45837</v>
+        <v>25569</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>45871</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>45872</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="P37" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>45872</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>45873</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R37" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="inlineStr">
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3296,7 +3708,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3329,30 +3745,37 @@
         <v>3</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>45838</v>
+        <v>25569</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>45872</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="P38" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>45873</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>45874</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R38" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T38" t="inlineStr">
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3371,7 +3794,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3403,30 +3830,37 @@
         <v>3</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>45839</v>
+        <v>25569</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="P39" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>45874</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>45875</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R39" s="2" t="n">
         <v>45850</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
-      <c r="T39" t="inlineStr">
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3445,7 +3879,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3476,30 +3914,37 @@
         <v>3</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>45840</v>
+        <v>25569</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>45876</v>
-      </c>
-      <c r="P40" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>45875</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>45876</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R40" s="2" t="n">
         <v>45851</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" t="inlineStr">
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3518,7 +3963,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3549,30 +3998,37 @@
         <v>3</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>45841</v>
+        <v>25569</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>45876</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="P41" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>45876</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>45877</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R41" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" t="inlineStr">
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3591,7 +4047,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3622,30 +4082,37 @@
         <v>3</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>45842</v>
+        <v>25569</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>45876</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="O42" s="2" t="n">
-        <v>45878</v>
-      </c>
-      <c r="P42" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>45877</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>45878</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R42" s="2" t="n">
         <v>45853</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" t="inlineStr">
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3664,7 +4131,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3695,30 +4166,37 @@
         <v>3</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>45843</v>
+        <v>25569</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>45878</v>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>45879</v>
-      </c>
-      <c r="P43" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>45878</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>45879</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R43" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
-      <c r="T43" t="inlineStr">
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3737,7 +4215,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3770,30 +4252,37 @@
         <v>3</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>45844</v>
+        <v>25569</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>45878</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>45879</v>
-      </c>
-      <c r="O44" s="2" t="n">
-        <v>45880</v>
-      </c>
-      <c r="P44" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>45879</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>45880</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R44" s="2" t="n">
         <v>45855</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" t="inlineStr">
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3812,7 +4301,11 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3843,30 +4336,37 @@
         <v>3</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>45845</v>
+        <v>25569</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>45879</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>45880</v>
-      </c>
-      <c r="O45" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P45" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>45880</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>45881</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R45" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
-      <c r="T45" t="inlineStr">
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -3885,7 +4385,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3916,30 +4420,37 @@
         <v>3</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>45846</v>
+        <v>25569</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>45880</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="O46" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="P46" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>45881</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>45882</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R46" s="2" t="n">
         <v>45857</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Non entamé</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
-      <c r="T46" t="inlineStr">
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>non entamé</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>26/05 : La mission a été nommée CO&amp;GO</t>
         </is>
@@ -3957,7 +4468,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -3988,30 +4503,37 @@
         <v>3</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>45847</v>
+        <v>25569</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="O47" s="2" t="n">
-        <v>45883</v>
-      </c>
-      <c r="P47" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>45882</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>45883</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R47" s="2" t="n">
         <v>45858</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T47" t="inlineStr">
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="inlineStr">
         <is>
           <t xml:space="preserve">27/05 : La demande de création a été transmis à l'administrateur </t>
         </is>
@@ -4029,7 +4551,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4061,30 +4587,37 @@
         <v>3</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>45848</v>
+        <v>25569</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>45883</v>
-      </c>
-      <c r="O48" s="2" t="n">
-        <v>45884</v>
-      </c>
-      <c r="P48" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>45883</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>45884</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R48" s="2" t="n">
         <v>45859</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cours </t>
-        </is>
-      </c>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
-      <c r="T48" t="inlineStr">
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>en cours</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4103,7 +4636,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4137,30 +4674,37 @@
         <v>3</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>45849</v>
+        <v>25569</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>45883</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>45884</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>45885</v>
-      </c>
-      <c r="P49" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>45884</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>45885</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R49" s="2" t="n">
         <v>45860</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Clôturé en retard</t>
-        </is>
-      </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
-      <c r="T49" t="inlineStr">
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>clôturé en retard</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4179,7 +4723,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4213,30 +4761,37 @@
         <v>3</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>45850</v>
+        <v>25569</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>45884</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>45885</v>
-      </c>
-      <c r="O50" s="2" t="n">
-        <v>45886</v>
-      </c>
-      <c r="P50" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>45885</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>45886</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R50" s="2" t="n">
         <v>45861</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>En retard</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" t="inlineStr">
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>en retard</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4255,7 +4810,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4290,30 +4849,37 @@
         <v>3</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>45851</v>
+        <v>25569</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>45885</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>45886</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="P51" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>45886</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>45887</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R51" s="2" t="n">
         <v>45862</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
-      <c r="T51" t="inlineStr">
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4332,7 +4898,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4363,30 +4933,37 @@
         <v>3</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>45852</v>
+        <v>25569</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>45886</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="O52" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="P52" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>45887</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>45888</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R52" s="2" t="n">
         <v>45863</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" t="inlineStr">
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4405,7 +4982,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4436,30 +5017,37 @@
         <v>3</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>45853</v>
+        <v>25569</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="P53" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>45888</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>45889</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R53" s="2" t="n">
         <v>45864</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" t="inlineStr">
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4478,7 +5066,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4509,30 +5101,37 @@
         <v>3</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>45854</v>
+        <v>25569</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="P54" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>45889</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>45890</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R54" s="2" t="n">
         <v>45865</v>
       </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Bloqué</t>
-        </is>
-      </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T54" t="inlineStr">
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>bloqué</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4551,7 +5150,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4582,30 +5185,37 @@
         <v>3</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>45855</v>
+        <v>25569</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="O55" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="P55" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>45890</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>45891</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R55" s="2" t="n">
         <v>45866</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
-      <c r="T55" t="inlineStr">
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4624,7 +5234,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4655,28 +5269,35 @@
         <v>3</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>45856</v>
+        <v>25569</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>45892</v>
-      </c>
-      <c r="P56" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>45891</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>45892</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R56" s="2" t="n">
         <v>45867</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4695,7 +5316,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4727,30 +5352,37 @@
         <v>3</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>45857</v>
+        <v>25569</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>45892</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>45893</v>
-      </c>
-      <c r="P57" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>45892</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>45893</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R57" s="2" t="n">
         <v>45868</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" t="inlineStr">
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4769,7 +5401,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4801,30 +5437,37 @@
         <v>3</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>45858</v>
+        <v>25569</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>45892</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="P58" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>45893</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>45894</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R58" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
-      <c r="T58" t="inlineStr">
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4843,7 +5486,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4874,30 +5521,37 @@
         <v>3</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>45859</v>
+        <v>25569</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>45893</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="O59" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="P59" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>45894</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>45895</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R59" s="2" t="n">
         <v>45870</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
-      <c r="T59" t="inlineStr">
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4916,7 +5570,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -4947,30 +5605,37 @@
         <v>3</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>45860</v>
+        <v>25569</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="O60" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="P60" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>45895</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>45896</t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R60" s="2" t="n">
         <v>45871</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T60" t="inlineStr">
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -4989,7 +5654,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -5020,30 +5689,37 @@
         <v>3</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>45861</v>
+        <v>25569</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="O61" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="P61" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>45896</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>45897</t>
+        </is>
+      </c>
+      <c r="Q61" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R61" s="2" t="n">
         <v>45872</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
-      <c r="T61" t="inlineStr">
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -5062,7 +5738,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -5095,30 +5775,37 @@
         <v>3</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>45862</v>
+        <v>25569</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="O62" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="P62" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>45897</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>45898</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R62" s="2" t="n">
         <v>45873</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
-      <c r="T62" t="inlineStr">
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -5137,7 +5824,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -5168,30 +5859,37 @@
         <v>3</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>45863</v>
+        <v>25569</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="O63" s="2" t="n">
-        <v>45899</v>
-      </c>
-      <c r="P63" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>45898</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>45899</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R63" s="2" t="n">
         <v>45874</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
-      <c r="T63" t="inlineStr">
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -5210,7 +5908,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -5241,30 +5943,37 @@
         <v>3</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>45864</v>
+        <v>25569</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="N64" s="2" t="n">
-        <v>45899</v>
-      </c>
-      <c r="O64" s="2" t="n">
-        <v>45900</v>
-      </c>
-      <c r="P64" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>45899</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>45900</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R64" s="2" t="n">
         <v>45875</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
-      <c r="T64" t="inlineStr">
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>
@@ -5283,7 +5992,11 @@
           <t xml:space="preserve">Enquête mystère  </t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur 1 </t>
@@ -5316,30 +6029,37 @@
         <v>3</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>45865</v>
+        <v>25569</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>45899</v>
-      </c>
-      <c r="N65" s="2" t="n">
-        <v>45900</v>
-      </c>
-      <c r="O65" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="P65" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>45900</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>45901</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="R65" s="2" t="n">
         <v>45876</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Clôturé</t>
-        </is>
-      </c>
-      <c r="S65" t="n">
-        <v>1</v>
-      </c>
-      <c r="T65" t="inlineStr">
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>clôturé</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="inlineStr">
         <is>
           <t>xx/XX : …...................................................................................
 Xx/xx : ….........................................................................................</t>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -480,42 +480,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DuréeElaboration</t>
+          <t>Début</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DuréeCTCQ</t>
+          <t>Elaboration Prévisionnelle</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DuréeApprobation</t>
+          <t>Elaboration Effective</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Début</t>
+          <t>CTCQ Prévisionnelle</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Elaboration</t>
+          <t>CTCQ Effective</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>CTCQ</t>
+          <t>Conformité</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Conformité</t>
+          <t>Approbation Prévisionnelle</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Approbation</t>
+          <t>Approbation Effective</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -581,36 +581,30 @@
           <t>Mail de nomination</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>45802</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>45836</v>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2025-06-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-06-29 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
           <t>2025-06-30 00:00:00</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" s="2" t="n">
         <v>45813</v>
       </c>
@@ -668,36 +662,30 @@
           <t>Demande de création envoyée à l'administrateur (par email)</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>45803</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>45837</v>
       </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2025-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>2025-07-01 00:00:00</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" s="2" t="n">
         <v>45814</v>
       </c>
@@ -756,36 +744,30 @@
 Offres et documents associés rangés</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>45804</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>45838</v>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-07-01 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
           <t>2025-07-02 00:00:00</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" s="2" t="n">
         <v>45815</v>
       </c>
@@ -846,36 +828,30 @@
 NDA</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" s="2" t="n">
+      <c r="I5" s="2" t="n">
         <v>45805</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>45839</v>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2025-07-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
           <t>2025-07-03 00:00:00</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" s="2" t="n">
         <v>45816</v>
       </c>
@@ -936,36 +912,30 @@
 Liste des documents en vigueur chez le client</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>45806</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>45840</v>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2025-07-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-07-03 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
           <t>2025-07-04 00:00:00</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" s="2" t="n">
         <v>45817</v>
       </c>
@@ -1027,36 +997,30 @@
 Feuille de route</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="n">
+      <c r="I7" s="2" t="n">
         <v>45807</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>45841</v>
       </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-07-04 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
           <t>2025-07-05 00:00:00</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" s="2" t="n">
         <v>45818</v>
       </c>
@@ -1115,36 +1079,30 @@
           <t>Planning détaillé validé</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>45808</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <v>45842</v>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-07-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
           <t>2025-07-06 00:00:00</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" s="2" t="n">
         <v>45819</v>
       </c>
@@ -1203,36 +1161,30 @@
           <t>Rapport d’immersion, d'enquête mystère ou diagnostic</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2" t="n">
+      <c r="I9" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <v>45843</v>
       </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-07-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-07-06 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
           <t>2025-07-07 00:00:00</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" s="2" t="n">
         <v>45820</v>
       </c>
@@ -1291,36 +1243,30 @@
           <t>Etat des lieux après vérification</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2" t="n">
+      <c r="I10" s="2" t="n">
         <v>45810</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="J10" s="2" t="n">
         <v>45844</v>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-07-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-07-07 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
           <t>2025-07-08 00:00:00</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" s="2" t="n">
         <v>45821</v>
       </c>
@@ -1381,36 +1327,30 @@
 Evaluation à chaud J1</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2" t="n">
+      <c r="I11" s="2" t="n">
         <v>45811</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="J11" s="2" t="n">
         <v>45845</v>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2025-07-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-07-08 00:00:00</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
           <t>2025-07-09 00:00:00</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" s="2" t="n">
         <v>45822</v>
       </c>
@@ -1471,36 +1411,30 @@
 Evaluation à chaud J2</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" s="2" t="n">
+      <c r="I12" s="2" t="n">
         <v>45812</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="J12" s="2" t="n">
         <v>45846</v>
       </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-07-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-07-09 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
           <t>2025-07-10 00:00:00</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" s="2" t="n">
         <v>45823</v>
       </c>
@@ -1561,36 +1495,30 @@
 Evaluation à chaud J3</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>45813</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="J13" s="2" t="n">
         <v>45847</v>
       </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2025-07-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-07-10 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
           <t>2025-07-11 00:00:00</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" s="2" t="n">
         <v>45824</v>
       </c>
@@ -1649,36 +1577,30 @@
           <t xml:space="preserve">Fiche qualité </t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" s="2" t="n">
+      <c r="I14" s="2" t="n">
         <v>45814</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="J14" s="2" t="n">
         <v>45848</v>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2025-07-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-07-11 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
           <t>2025-07-12 00:00:00</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" s="2" t="n">
         <v>45825</v>
       </c>
@@ -1737,36 +1659,30 @@
 Mails de suivi</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2" t="n">
+      <c r="I15" s="2" t="n">
         <v>45815</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="J15" s="2" t="n">
         <v>45849</v>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2025-07-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-07-12 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
           <t>2025-07-13 00:00:00</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" s="2" t="n">
         <v>45826</v>
       </c>
@@ -1827,36 +1743,30 @@
 Rapport enquête de satisfaction client</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" s="2" t="n">
+      <c r="I16" s="2" t="n">
         <v>45816</v>
       </c>
-      <c r="M16" s="2" t="n">
+      <c r="J16" s="2" t="n">
         <v>45850</v>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2025-07-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-07-13 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
           <t>2025-07-14 00:00:00</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" s="2" t="n">
         <v>45827</v>
       </c>
@@ -1916,36 +1826,30 @@
 Préparation de la réunion finale</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" s="2" t="n">
+      <c r="I17" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="M17" s="2" t="n">
+      <c r="J17" s="2" t="n">
         <v>45851</v>
       </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2025-07-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-07-14 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
           <t>2025-07-15 00:00:00</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" s="2" t="n">
         <v>45828</v>
       </c>
@@ -2005,36 +1909,30 @@
 Attestations de formation </t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" s="2" t="n">
+      <c r="I18" s="2" t="n">
         <v>45818</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="J18" s="2" t="n">
         <v>45852</v>
       </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2025-07-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
           <t>2025-07-16 00:00:00</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" s="2" t="n">
         <v>45829</v>
       </c>
@@ -2093,36 +1991,30 @@
           <t>Compte rendu de réunion</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
-      <c r="L19" s="2" t="n">
+      <c r="I19" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M19" s="2" t="n">
+      <c r="J19" s="2" t="n">
         <v>45853</v>
       </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2025-07-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-07-16 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
           <t>2025-07-17 00:00:00</t>
         </is>
       </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" s="2" t="n">
         <v>45830</v>
       </c>
@@ -2181,36 +2073,30 @@
           <t xml:space="preserve">REX </t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" s="2" t="n">
+      <c r="I20" s="2" t="n">
         <v>45820</v>
       </c>
-      <c r="M20" s="2" t="n">
+      <c r="J20" s="2" t="n">
         <v>45854</v>
       </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2025-07-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-07-17 00:00:00</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
           <t>2025-07-18 00:00:00</t>
         </is>
       </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" s="2" t="n">
         <v>45831</v>
       </c>
@@ -2269,32 +2155,26 @@
           <t>Mail ou message de remerciement</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="2" t="n">
+      <c r="I21" s="2" t="n">
         <v>45821</v>
       </c>
-      <c r="M21" s="2" t="n">
+      <c r="J21" s="2" t="n">
         <v>45855</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t>2025-07-18 00:00:00</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>2025-07-19 00:00:00</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" s="2" t="n">
         <v>45832</v>
       </c>
@@ -2355,32 +2235,26 @@
 Relance si nécessaire</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3</v>
-      </c>
-      <c r="L22" s="2" t="n">
+      <c r="I22" s="2" t="n">
         <v>45822</v>
       </c>
-      <c r="M22" s="2" t="n">
+      <c r="J22" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t>2025-07-19 00:00:00</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>2025-07-20 00:00:00</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" s="2" t="n">
         <v>45833</v>
       </c>
@@ -2439,32 +2313,26 @@
           <t xml:space="preserve">Dossier complet archivé dans Drive </t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3</v>
-      </c>
-      <c r="L23" s="2" t="n">
+      <c r="I23" s="2" t="n">
         <v>45823</v>
       </c>
-      <c r="M23" s="2" t="n">
+      <c r="J23" s="2" t="n">
         <v>45857</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
         <is>
           <t>2025-07-20 00:00:00</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t>2025-07-21 00:00:00</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" s="2" t="n">
         <v>45834</v>
       </c>
@@ -2523,32 +2391,26 @@
           <t>Mail de nomination</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="I24" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
         <is>
           <t>45859</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>45860</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" s="2" t="n">
         <v>25569</v>
       </c>
@@ -2606,32 +2468,26 @@
           <t>Demande de création envoyée à l'administrateur (par email)</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="I25" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>45860</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
         <is>
           <t>45861</t>
         </is>
       </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" s="2" t="n">
         <v>25569</v>
       </c>
@@ -2690,32 +2546,26 @@
 Offres et documents associés rangés</t>
         </is>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="I26" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t>45861</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
         <is>
           <t>45862</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" s="2" t="n">
         <v>25569</v>
       </c>
@@ -2777,32 +2627,26 @@
 NDA</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="I27" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
         <is>
           <t>45862</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
         <is>
           <t>45863</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" s="2" t="n">
         <v>25569</v>
       </c>
@@ -2864,32 +2708,26 @@
 Liste des documents en vigueur chez le client</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="I28" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
         <is>
           <t>45863</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
         <is>
           <t>45864</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" s="2" t="n">
         <v>25569</v>
       </c>
@@ -2951,32 +2789,26 @@
 Feuille de route</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="I29" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t>45864</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
         <is>
           <t>45865</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3035,36 +2867,30 @@
           <t>Planning détaillé validé</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>25569</v>
-      </c>
+      <c r="I30" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>45865</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>45865</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
           <t>45866</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3123,36 +2949,30 @@
           <t>Rapport d’immersion, d'enquête mystère ou diagnostic</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
-      </c>
-      <c r="L31" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>25569</v>
-      </c>
+      <c r="I31" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>45866</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>45866</t>
+          <t>OUI</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
           <t>45867</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3211,36 +3031,30 @@
           <t xml:space="preserve">Support de sensibilisation </t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3</v>
-      </c>
-      <c r="L32" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>25569</v>
-      </c>
+      <c r="I32" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>45867</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>45867</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
           <t>45868</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3301,36 +3115,30 @@
 Livrables spécificques au référentiel </t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3</v>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>25569</v>
-      </c>
+      <c r="I33" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>45868</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>45868</t>
+          <t>Non Applicable</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Non Applicable</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
           <t>45869</t>
         </is>
       </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3391,36 +3199,30 @@
 Livrables spécificques au référentiel </t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>25569</v>
-      </c>
+      <c r="I34" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>45869</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>45869</t>
+          <t>NON</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
           <t>45870</t>
         </is>
       </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3481,32 +3283,26 @@
 Livrables spécificques au référentiel </t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3</v>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="I35" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
         <is>
           <t>45870</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
         <is>
           <t>45871</t>
         </is>
       </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3565,32 +3361,26 @@
           <t xml:space="preserve">Fiche qualité </t>
         </is>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3</v>
-      </c>
-      <c r="L36" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="I36" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
         <is>
           <t>45871</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
         <is>
           <t>45872</t>
         </is>
       </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3649,32 +3439,26 @@
 Mails de suivi</t>
         </is>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3</v>
-      </c>
-      <c r="L37" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="I37" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t>45872</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
         <is>
           <t>45873</t>
         </is>
       </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3735,32 +3519,26 @@
 Rapport enquête de satisfaction client</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="I38" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
         <is>
           <t>45873</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
         <is>
           <t>45874</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3820,32 +3598,26 @@
 Préparation de la réunion finale</t>
         </is>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3</v>
-      </c>
-      <c r="L39" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="I39" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
         <is>
           <t>45874</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
         <is>
           <t>45875</t>
         </is>
       </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3904,32 +3676,26 @@
           <t>Rapport de fin de mission</t>
         </is>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3</v>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="I40" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
         <is>
           <t>45875</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
         <is>
           <t>45876</t>
         </is>
       </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" s="2" t="n">
         <v>25569</v>
       </c>
@@ -3988,32 +3754,26 @@
           <t>Compte rendu de réunion</t>
         </is>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3</v>
-      </c>
-      <c r="L41" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="I41" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
         <is>
           <t>45876</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
         <is>
           <t>45877</t>
         </is>
       </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4072,32 +3832,26 @@
           <t xml:space="preserve">REX </t>
         </is>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="I42" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
         <is>
           <t>45877</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
         <is>
           <t>45878</t>
         </is>
       </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4156,32 +3910,26 @@
           <t>Mail ou message de remerciement</t>
         </is>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="I43" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
         <is>
           <t>45878</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
         <is>
           <t>45879</t>
         </is>
       </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4242,32 +3990,26 @@
 Relance si nécessaire</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3</v>
-      </c>
-      <c r="L44" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="I44" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
         <is>
           <t>45879</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
         <is>
           <t>45880</t>
         </is>
       </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4326,32 +4068,26 @@
           <t xml:space="preserve">Dossier complet archivé dans Drive </t>
         </is>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="I45" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
         <is>
           <t>45880</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
         <is>
           <t>45881</t>
         </is>
       </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4410,32 +4146,26 @@
           <t>Mail de nomination</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3</v>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="I46" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
         <is>
           <t>45881</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
         <is>
           <t>45882</t>
         </is>
       </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4493,32 +4223,26 @@
           <t>Demande de création envoyée à l'administrateur (par email)</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3</v>
-      </c>
-      <c r="L47" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="I47" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
         <is>
           <t>45882</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
         <is>
           <t>45883</t>
         </is>
       </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4577,32 +4301,26 @@
 Offres et documents associés rangés</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3</v>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="I48" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
         <is>
           <t>45883</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
         <is>
           <t>45884</t>
         </is>
       </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4664,32 +4382,26 @@
 NDA</t>
         </is>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3</v>
-      </c>
-      <c r="L49" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="I49" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t>45884</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
         <is>
           <t>45885</t>
         </is>
       </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4751,32 +4463,26 @@
 Grille d'enquête mystère </t>
         </is>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="I50" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
         <is>
           <t>45885</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
         <is>
           <t>45886</t>
         </is>
       </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4839,32 +4545,26 @@
 Grille d'énquête mystère</t>
         </is>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3</v>
-      </c>
-      <c r="L51" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N51" t="inlineStr">
+      <c r="I51" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
         <is>
           <t>45886</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
         <is>
           <t>45887</t>
         </is>
       </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" s="2" t="n">
         <v>25569</v>
       </c>
@@ -4923,32 +4623,26 @@
           <t>Planning détaillé validé</t>
         </is>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3</v>
-      </c>
-      <c r="L52" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N52" t="inlineStr">
+      <c r="I52" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t>45887</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
         <is>
           <t>45888</t>
         </is>
       </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5007,32 +4701,26 @@
           <t xml:space="preserve">Rapport d’immersion J1 </t>
         </is>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3</v>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N53" t="inlineStr">
+      <c r="I53" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
         <is>
           <t>45888</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
         <is>
           <t>45889</t>
         </is>
       </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5091,32 +4779,26 @@
           <t>Rapport d’immersion J2</t>
         </is>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3</v>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N54" t="inlineStr">
+      <c r="I54" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
         <is>
           <t>45889</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
         <is>
           <t>45890</t>
         </is>
       </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5175,32 +4857,26 @@
           <t>Rapport d’immersion J3</t>
         </is>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3</v>
-      </c>
-      <c r="L55" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N55" t="inlineStr">
+      <c r="I55" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
         <is>
           <t>45890</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
         <is>
           <t>45891</t>
         </is>
       </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5259,32 +4935,26 @@
           <t xml:space="preserve">Fiche qualité </t>
         </is>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3</v>
-      </c>
-      <c r="L56" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N56" t="inlineStr">
+      <c r="I56" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
         <is>
           <t>45891</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
         <is>
           <t>45892</t>
         </is>
       </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5342,32 +5012,26 @@
 Mails de suivi</t>
         </is>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3</v>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N57" t="inlineStr">
+      <c r="I57" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
         <is>
           <t>45892</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
         <is>
           <t>45893</t>
         </is>
       </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5427,32 +5091,26 @@
 Préparation de la réunion finale</t>
         </is>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3</v>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N58" t="inlineStr">
+      <c r="I58" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
         <is>
           <t>45893</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
         <is>
           <t>45894</t>
         </is>
       </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5511,32 +5169,26 @@
           <t xml:space="preserve">Rapport d'enquête mystère  </t>
         </is>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3</v>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N59" t="inlineStr">
+      <c r="I59" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
         <is>
           <t>45894</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
         <is>
           <t>45895</t>
         </is>
       </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5595,32 +5247,26 @@
           <t>Rapport d'enquête mystère validé</t>
         </is>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3</v>
-      </c>
-      <c r="L60" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M60" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N60" t="inlineStr">
+      <c r="I60" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
         <is>
           <t>45895</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
         <is>
           <t>45896</t>
         </is>
       </c>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5679,32 +5325,26 @@
           <t xml:space="preserve">REX </t>
         </is>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3</v>
-      </c>
-      <c r="L61" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M61" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N61" t="inlineStr">
+      <c r="I61" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
         <is>
           <t>45896</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
         <is>
           <t>45897</t>
         </is>
       </c>
+      <c r="P61" t="inlineStr"/>
       <c r="Q61" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5765,32 +5405,26 @@
 Rapport enquête de satisfaction client</t>
         </is>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3</v>
-      </c>
-      <c r="L62" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M62" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N62" t="inlineStr">
+      <c r="I62" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
         <is>
           <t>45897</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
         <is>
           <t>45898</t>
         </is>
       </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5849,32 +5483,26 @@
           <t>Mail ou message de remerciement</t>
         </is>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3</v>
-      </c>
-      <c r="L63" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M63" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N63" t="inlineStr">
+      <c r="I63" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
         <is>
           <t>45898</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
         <is>
           <t>45899</t>
         </is>
       </c>
+      <c r="P63" t="inlineStr"/>
       <c r="Q63" s="2" t="n">
         <v>25569</v>
       </c>
@@ -5933,32 +5561,26 @@
           <t xml:space="preserve">Dossier complet archivé dans Drive </t>
         </is>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3</v>
-      </c>
-      <c r="L64" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M64" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N64" t="inlineStr">
+      <c r="I64" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
         <is>
           <t>45899</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
         <is>
           <t>45900</t>
         </is>
       </c>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" s="2" t="n">
         <v>25569</v>
       </c>
@@ -6019,32 +5641,26 @@
 Relance si nécessaire</t>
         </is>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3</v>
-      </c>
-      <c r="L65" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="M65" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="N65" t="inlineStr">
+      <c r="I65" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
         <is>
           <t>45900</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
         <is>
           <t>45901</t>
         </is>
       </c>
+      <c r="P65" t="inlineStr"/>
       <c r="Q65" s="2" t="n">
         <v>25569</v>
       </c>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Réalisations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="207">
   <si>
     <t>Ref</t>
   </si>
@@ -22,7 +27,7 @@
     <t>ID_Mission</t>
   </si>
   <si>
-    <t>Type de Missions</t>
+    <t>Services</t>
   </si>
   <si>
     <t>Missions</t>
@@ -34,52 +39,88 @@
     <t>Phases</t>
   </si>
   <si>
-    <t>Etapes</t>
+    <t>Activités</t>
   </si>
   <si>
     <t>Livrables</t>
   </si>
   <si>
-    <t>Début</t>
-  </si>
-  <si>
-    <t>Elaboration Prévisionnelle</t>
-  </si>
-  <si>
-    <t>Elaboration Effective</t>
-  </si>
-  <si>
-    <t>CTCQ Prévisionnelle</t>
-  </si>
-  <si>
-    <t>CTCQ Effective</t>
+    <t>Date Début</t>
+  </si>
+  <si>
+    <t>Date Elaboration Prévisionnelle</t>
+  </si>
+  <si>
+    <t>Date Elaboration Effective</t>
+  </si>
+  <si>
+    <t>Responsable Elaboration</t>
+  </si>
+  <si>
+    <t>Satisfaction Elaboration</t>
+  </si>
+  <si>
+    <t>Date CTCQ Prévisionnelle</t>
+  </si>
+  <si>
+    <t>Date CTCQ Effective</t>
+  </si>
+  <si>
+    <t>Responsable CTCQ</t>
+  </si>
+  <si>
+    <t>Satisfaction CTCQ</t>
   </si>
   <si>
     <t>Conformité</t>
   </si>
   <si>
-    <t>Approbation Prévisionnelle</t>
-  </si>
-  <si>
-    <t>Approbation Effective</t>
-  </si>
-  <si>
-    <t>Fin Prévisionnelle</t>
-  </si>
-  <si>
-    <t>Fin Effective</t>
-  </si>
-  <si>
-    <t>Statut</t>
-  </si>
-  <si>
-    <t>Focus sur les actions du jour</t>
+    <t>Date Approbation Prévisionnelle</t>
+  </si>
+  <si>
+    <t>Date Approbation Effective</t>
+  </si>
+  <si>
+    <t>Responsable Approbation</t>
+  </si>
+  <si>
+    <t>Satisfaction Approbation</t>
+  </si>
+  <si>
+    <t>Date Finalisation Prévisionnelle</t>
+  </si>
+  <si>
+    <t>Date Finalisation Effective</t>
+  </si>
+  <si>
+    <t>Satisfaction Globale</t>
+  </si>
+  <si>
+    <t>Date Satisfaction Client</t>
+  </si>
+  <si>
+    <t>Statut Avancement</t>
+  </si>
+  <si>
+    <t>Nom Client</t>
   </si>
   <si>
     <t>Commentaires</t>
   </si>
   <si>
-    <t>Mission_ID</t>
+    <t>Date Facturation</t>
+  </si>
+  <si>
+    <t>Statut Règlement</t>
+  </si>
+  <si>
+    <t>Date Règlement</t>
+  </si>
+  <si>
+    <t>Code Projet Client</t>
+  </si>
+  <si>
+    <t>Zone Géographique</t>
   </si>
   <si>
     <t>AUTO-20250605024354717867</t>
@@ -103,7 +144,7 @@
     <t>Formation</t>
   </si>
   <si>
-    <t>Accompagnement</t>
+    <t>Conformité ISO</t>
   </si>
   <si>
     <t xml:space="preserve">Enquête mystère  </t>
@@ -609,34 +650,44 @@
     <t>bloqué</t>
   </si>
   <si>
-    <t>26/05 : La mission a été nommée CO&amp;GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/05 : La demande de création a été transmis à l'administrateur </t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>bonj</t>
-  </si>
-  <si>
-    <t>xx/XX : …...................................................................................
-Xx/xx : ….........................................................................................</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mon commentaire
-</t>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloqué </t>
+  </si>
+  <si>
+    <t>fait</t>
+  </si>
+  <si>
+    <t>Proactif</t>
+  </si>
+  <si>
+    <t>fiable,Bien</t>
+  </si>
+  <si>
+    <t>Resp1</t>
+  </si>
+  <si>
+    <t>Resp0</t>
+  </si>
+  <si>
+    <t>RespC1</t>
+  </si>
+  <si>
+    <t>RespC0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,11 +751,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -746,7 +805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,9 +837,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,6 +872,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -987,14 +1048,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,31 +1127,67 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2">
         <v>45802</v>
@@ -1097,3512 +1199,3395 @@
         <v>45837</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="2">
+        <v>203</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="2">
         <v>45838</v>
       </c>
-      <c r="N2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="R2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" s="2">
         <v>45813</v>
       </c>
-      <c r="R2" s="2">
+      <c r="X2" s="2">
         <v>45813</v>
       </c>
-      <c r="S2" t="s">
-        <v>179</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="AA2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2">
-        <v>45803</v>
+        <v>45802</v>
       </c>
       <c r="J3" s="2">
         <v>45837</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>203</v>
+      </c>
+      <c r="M3" t="s">
+        <v>205</v>
       </c>
       <c r="N3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q3" s="2">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W3" s="2">
         <v>45814</v>
       </c>
-      <c r="R3" s="2">
+      <c r="X3" s="2">
         <v>45814</v>
       </c>
-      <c r="S3" t="s">
-        <v>180</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="AA3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2">
-        <v>45804</v>
+        <v>45802</v>
       </c>
       <c r="J4" s="2">
         <v>45838</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>203</v>
+      </c>
+      <c r="M4" t="s">
+        <v>205</v>
       </c>
       <c r="N4" t="s">
-        <v>172</v>
-      </c>
-      <c r="O4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="2">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="2">
         <v>45815</v>
       </c>
-      <c r="R4" s="2">
+      <c r="X4" s="2">
         <v>45815</v>
       </c>
-      <c r="S4" t="s">
-        <v>181</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="AA4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2">
-        <v>45805</v>
+        <v>45802</v>
       </c>
       <c r="J5" s="2">
         <v>45839</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>203</v>
+      </c>
+      <c r="M5" t="s">
+        <v>205</v>
       </c>
       <c r="N5" t="s">
-        <v>172</v>
-      </c>
-      <c r="O5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="2">
+        <v>121</v>
+      </c>
+      <c r="R5" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+      <c r="W5" s="2">
         <v>45816</v>
       </c>
-      <c r="R5" s="2">
+      <c r="X5" s="2">
         <v>45816</v>
       </c>
-      <c r="S5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="AA5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2">
-        <v>45806</v>
+        <v>45802</v>
       </c>
       <c r="J6" s="2">
         <v>45840</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>203</v>
+      </c>
+      <c r="M6" t="s">
+        <v>205</v>
       </c>
       <c r="N6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="2">
+        <v>122</v>
+      </c>
+      <c r="R6" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6" t="s">
+        <v>123</v>
+      </c>
+      <c r="W6" s="2">
         <v>45817</v>
       </c>
-      <c r="R6" s="2">
+      <c r="X6" s="2">
         <v>45817</v>
       </c>
-      <c r="S6" t="s">
-        <v>183</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="AA6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2">
-        <v>45807</v>
+        <v>45802</v>
       </c>
       <c r="J7" s="2">
         <v>45841</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>203</v>
+      </c>
+      <c r="M7" t="s">
+        <v>205</v>
       </c>
       <c r="N7" t="s">
-        <v>172</v>
-      </c>
-      <c r="O7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="2">
+        <v>123</v>
+      </c>
+      <c r="R7" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="2">
         <v>45818</v>
       </c>
-      <c r="R7" s="2">
+      <c r="X7" s="2">
         <v>45818</v>
       </c>
-      <c r="S7" t="s">
-        <v>184</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="AA7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2">
-        <v>45808</v>
+        <v>45802</v>
       </c>
       <c r="J8" s="2">
         <v>45842</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>203</v>
+      </c>
+      <c r="M8" t="s">
+        <v>205</v>
       </c>
       <c r="N8" t="s">
-        <v>172</v>
-      </c>
-      <c r="O8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="2">
+        <v>124</v>
+      </c>
+      <c r="R8" t="s">
+        <v>184</v>
+      </c>
+      <c r="S8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8" s="2">
         <v>45819</v>
       </c>
-      <c r="R8" s="2">
+      <c r="X8" s="2">
         <v>45819</v>
       </c>
-      <c r="S8" t="s">
-        <v>184</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="AA8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2">
-        <v>45809</v>
+        <v>45802</v>
       </c>
       <c r="J9" s="2">
         <v>45843</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>203</v>
+      </c>
+      <c r="M9" t="s">
+        <v>205</v>
       </c>
       <c r="N9" t="s">
-        <v>172</v>
-      </c>
-      <c r="O9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>125</v>
+      </c>
+      <c r="R9" t="s">
+        <v>184</v>
+      </c>
+      <c r="S9" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="2">
         <v>45820</v>
       </c>
-      <c r="R9" s="2">
+      <c r="X9" s="2">
         <v>45820</v>
       </c>
-      <c r="S9" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="AA9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2">
-        <v>45810</v>
+        <v>45802</v>
       </c>
       <c r="J10" s="2">
         <v>45844</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>203</v>
+      </c>
+      <c r="M10" t="s">
+        <v>205</v>
       </c>
       <c r="N10" t="s">
-        <v>172</v>
-      </c>
-      <c r="O10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q10" s="2">
+        <v>126</v>
+      </c>
+      <c r="R10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" t="s">
+        <v>127</v>
+      </c>
+      <c r="W10" s="2">
         <v>45821</v>
       </c>
-      <c r="R10" s="2">
+      <c r="X10" s="2">
         <v>45821</v>
       </c>
-      <c r="S10" t="s">
-        <v>184</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="AA10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2">
-        <v>45811</v>
+        <v>45802</v>
       </c>
       <c r="J11" s="2">
         <v>45845</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>203</v>
+      </c>
+      <c r="M11" t="s">
+        <v>205</v>
       </c>
       <c r="N11" t="s">
-        <v>172</v>
-      </c>
-      <c r="O11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="2">
+        <v>127</v>
+      </c>
+      <c r="R11" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" t="s">
+        <v>128</v>
+      </c>
+      <c r="W11" s="2">
         <v>45822</v>
       </c>
-      <c r="R11" s="2">
+      <c r="X11" s="2">
         <v>45822</v>
       </c>
-      <c r="S11" t="s">
-        <v>180</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="AA11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2">
-        <v>45812</v>
+        <v>45802</v>
       </c>
       <c r="J12" s="2">
         <v>45846</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>203</v>
+      </c>
+      <c r="M12" t="s">
+        <v>205</v>
       </c>
       <c r="N12" t="s">
-        <v>173</v>
-      </c>
-      <c r="O12" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q12" s="2">
+        <v>128</v>
+      </c>
+      <c r="R12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W12" s="2">
         <v>45823</v>
       </c>
-      <c r="R12" s="2">
+      <c r="X12" s="2">
         <v>45823</v>
       </c>
-      <c r="S12" t="s">
-        <v>180</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="AA12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2">
-        <v>45813</v>
+        <v>45802</v>
       </c>
       <c r="J13" s="2">
         <v>45847</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>203</v>
+      </c>
+      <c r="M13" t="s">
+        <v>205</v>
       </c>
       <c r="N13" t="s">
-        <v>173</v>
-      </c>
-      <c r="O13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="2">
+        <v>129</v>
+      </c>
+      <c r="R13" t="s">
+        <v>185</v>
+      </c>
+      <c r="S13" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="2">
         <v>45824</v>
       </c>
-      <c r="R13" s="2">
+      <c r="X13" s="2">
         <v>45824</v>
       </c>
-      <c r="S13" t="s">
-        <v>180</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="AA13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2">
-        <v>45814</v>
+        <v>45802</v>
       </c>
       <c r="J14" s="2">
         <v>45848</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>203</v>
+      </c>
+      <c r="M14" t="s">
+        <v>206</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="2">
+        <v>130</v>
+      </c>
+      <c r="R14" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" s="2">
         <v>45825</v>
       </c>
-      <c r="R14" s="2">
+      <c r="X14" s="2">
         <v>45825</v>
       </c>
-      <c r="S14" t="s">
-        <v>180</v>
-      </c>
-      <c r="U14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="AA14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I15" s="2">
-        <v>45815</v>
+        <v>45802</v>
       </c>
       <c r="J15" s="2">
         <v>45849</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>203</v>
+      </c>
+      <c r="M15" t="s">
+        <v>206</v>
       </c>
       <c r="N15" t="s">
-        <v>173</v>
-      </c>
-      <c r="O15" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q15" s="2">
+        <v>131</v>
+      </c>
+      <c r="R15" t="s">
+        <v>185</v>
+      </c>
+      <c r="S15" t="s">
+        <v>132</v>
+      </c>
+      <c r="W15" s="2">
         <v>45826</v>
       </c>
-      <c r="R15" s="2">
+      <c r="X15" s="2">
         <v>45826</v>
       </c>
-      <c r="S15" t="s">
-        <v>180</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="AA15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I16" s="2">
-        <v>45816</v>
+        <v>45802</v>
       </c>
       <c r="J16" s="2">
         <v>45850</v>
       </c>
       <c r="L16" t="s">
-        <v>120</v>
+        <v>203</v>
+      </c>
+      <c r="M16" t="s">
+        <v>206</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
-      </c>
-      <c r="O16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="2">
+        <v>132</v>
+      </c>
+      <c r="R16" t="s">
+        <v>185</v>
+      </c>
+      <c r="S16" t="s">
+        <v>133</v>
+      </c>
+      <c r="W16" s="2">
         <v>45827</v>
       </c>
-      <c r="R16" s="2">
+      <c r="X16" s="2">
         <v>45827</v>
       </c>
-      <c r="S16" t="s">
-        <v>180</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="AA16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I17" s="2">
-        <v>45817</v>
+        <v>45802</v>
       </c>
       <c r="J17" s="2">
         <v>45851</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>203</v>
+      </c>
+      <c r="M17" t="s">
+        <v>206</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
-      </c>
-      <c r="O17" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="2">
+        <v>133</v>
+      </c>
+      <c r="R17" t="s">
+        <v>185</v>
+      </c>
+      <c r="S17" t="s">
+        <v>134</v>
+      </c>
+      <c r="W17" s="2">
         <v>45828</v>
       </c>
-      <c r="R17" s="2">
+      <c r="X17" s="2">
         <v>45828</v>
       </c>
-      <c r="S17" t="s">
-        <v>180</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="AA17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2">
-        <v>45818</v>
+        <v>45802</v>
       </c>
       <c r="J18" s="2">
         <v>45852</v>
       </c>
       <c r="L18" t="s">
-        <v>122</v>
+        <v>204</v>
+      </c>
+      <c r="M18" t="s">
+        <v>206</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
-      </c>
-      <c r="O18" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="2">
+        <v>134</v>
+      </c>
+      <c r="R18" t="s">
+        <v>185</v>
+      </c>
+      <c r="S18" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18" s="2">
         <v>45829</v>
       </c>
-      <c r="R18" s="2">
+      <c r="X18" s="2">
         <v>45829</v>
       </c>
-      <c r="S18" t="s">
-        <v>180</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="AA18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2">
-        <v>45819</v>
+        <v>45802</v>
       </c>
       <c r="J19" s="2">
         <v>45853</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>204</v>
+      </c>
+      <c r="M19" t="s">
+        <v>206</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
-      </c>
-      <c r="O19" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="2">
+        <v>135</v>
+      </c>
+      <c r="R19" t="s">
+        <v>185</v>
+      </c>
+      <c r="S19" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19" s="2">
         <v>45830</v>
       </c>
-      <c r="R19" s="2">
+      <c r="X19" s="2">
         <v>45830</v>
       </c>
-      <c r="S19" t="s">
-        <v>180</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="AA19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2">
-        <v>45820</v>
+        <v>45802</v>
       </c>
       <c r="J20" s="2">
         <v>45854</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>204</v>
+      </c>
+      <c r="M20" t="s">
+        <v>206</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
-      </c>
-      <c r="O20" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="2">
+        <v>136</v>
+      </c>
+      <c r="R20" t="s">
+        <v>185</v>
+      </c>
+      <c r="S20" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" s="2">
         <v>45831</v>
       </c>
-      <c r="R20" s="2">
+      <c r="X20" s="2">
         <v>45831</v>
       </c>
-      <c r="S20" t="s">
-        <v>180</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="AA20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2">
-        <v>45821</v>
+        <v>45802</v>
       </c>
       <c r="J21" s="2">
         <v>45855</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
-      </c>
-      <c r="O21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q21" s="2">
+        <v>204</v>
+      </c>
+      <c r="M21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S21" t="s">
+        <v>138</v>
+      </c>
+      <c r="W21" s="2">
         <v>45832</v>
       </c>
-      <c r="R21" s="2">
+      <c r="X21" s="2">
         <v>45832</v>
       </c>
-      <c r="S21" t="s">
-        <v>180</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="AA21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I22" s="2">
-        <v>45822</v>
+        <v>45802</v>
       </c>
       <c r="J22" s="2">
         <v>45856</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
-      </c>
-      <c r="O22" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="2">
+        <v>204</v>
+      </c>
+      <c r="M22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N22" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" t="s">
+        <v>139</v>
+      </c>
+      <c r="W22" s="2">
         <v>45833</v>
       </c>
-      <c r="R22" s="2">
+      <c r="X22" s="2">
         <v>45833</v>
       </c>
-      <c r="S22" t="s">
-        <v>180</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="AA22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I23" s="2">
-        <v>45823</v>
+        <v>45802</v>
       </c>
       <c r="J23" s="2">
         <v>45857</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
-      </c>
-      <c r="O23" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q23" s="2">
+        <v>204</v>
+      </c>
+      <c r="M23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" t="s">
+        <v>139</v>
+      </c>
+      <c r="S23" t="s">
+        <v>188</v>
+      </c>
+      <c r="W23" s="2">
         <v>45834</v>
       </c>
-      <c r="R23" s="2">
+      <c r="X23" s="2">
         <v>45834</v>
       </c>
-      <c r="S23" t="s">
-        <v>180</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="AA23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I24" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J24" s="2">
         <v>25569</v>
       </c>
       <c r="L24" t="s">
-        <v>128</v>
-      </c>
-      <c r="O24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R24" s="2">
+        <v>204</v>
+      </c>
+      <c r="M24" t="s">
+        <v>206</v>
+      </c>
+      <c r="N24" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" t="s">
+        <v>141</v>
+      </c>
+      <c r="W24" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X24" s="2">
         <v>45835</v>
       </c>
-      <c r="S24" t="s">
-        <v>179</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="AA24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I25" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J25" s="2">
         <v>25569</v>
       </c>
       <c r="L25" t="s">
-        <v>129</v>
-      </c>
-      <c r="O25" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R25" s="2">
+        <v>204</v>
+      </c>
+      <c r="M25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N25" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" t="s">
+        <v>142</v>
+      </c>
+      <c r="W25" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X25" s="2">
         <v>45836</v>
       </c>
-      <c r="S25" t="s">
-        <v>180</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="AA25" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I26" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J26" s="2">
         <v>25569</v>
       </c>
       <c r="L26" t="s">
-        <v>130</v>
-      </c>
-      <c r="O26" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R26" s="2">
+        <v>204</v>
+      </c>
+      <c r="M26" t="s">
+        <v>206</v>
+      </c>
+      <c r="N26" t="s">
+        <v>142</v>
+      </c>
+      <c r="S26" t="s">
+        <v>143</v>
+      </c>
+      <c r="W26" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X26" s="2">
         <v>45837</v>
       </c>
-      <c r="S26" t="s">
-        <v>181</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="AA26" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I27" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J27" s="2">
         <v>25569</v>
       </c>
       <c r="L27" t="s">
-        <v>131</v>
-      </c>
-      <c r="O27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R27" s="2">
+        <v>204</v>
+      </c>
+      <c r="M27" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27" t="s">
+        <v>143</v>
+      </c>
+      <c r="S27" t="s">
+        <v>144</v>
+      </c>
+      <c r="W27" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X27" s="2">
         <v>45838</v>
       </c>
-      <c r="S27" t="s">
-        <v>182</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="AA27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I28" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J28" s="2">
         <v>25569</v>
       </c>
       <c r="L28" t="s">
-        <v>132</v>
-      </c>
-      <c r="O28" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R28" s="2">
+        <v>204</v>
+      </c>
+      <c r="N28" t="s">
+        <v>144</v>
+      </c>
+      <c r="S28" t="s">
+        <v>145</v>
+      </c>
+      <c r="W28" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X28" s="2">
         <v>45839</v>
       </c>
-      <c r="S28" t="s">
-        <v>183</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="AA28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I29" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J29" s="2">
         <v>25569</v>
       </c>
       <c r="L29" t="s">
-        <v>133</v>
-      </c>
-      <c r="O29" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R29" s="2">
+        <v>204</v>
+      </c>
+      <c r="N29" t="s">
+        <v>145</v>
+      </c>
+      <c r="S29" t="s">
+        <v>146</v>
+      </c>
+      <c r="W29" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X29" s="2">
         <v>45840</v>
       </c>
-      <c r="S29" t="s">
-        <v>184</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="AA29" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I30" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J30" s="2">
         <v>25569</v>
       </c>
       <c r="L30" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="N30" t="s">
-        <v>172</v>
-      </c>
-      <c r="O30" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R30" s="2">
+        <v>146</v>
+      </c>
+      <c r="R30" t="s">
+        <v>184</v>
+      </c>
+      <c r="S30" t="s">
+        <v>147</v>
+      </c>
+      <c r="W30" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X30" s="2">
         <v>45841</v>
       </c>
-      <c r="S30" t="s">
-        <v>184</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="AA30" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I31" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J31" s="2">
         <v>25569</v>
       </c>
       <c r="L31" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="N31" t="s">
-        <v>172</v>
-      </c>
-      <c r="O31" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R31" s="2">
+        <v>147</v>
+      </c>
+      <c r="R31" t="s">
+        <v>184</v>
+      </c>
+      <c r="S31" t="s">
+        <v>148</v>
+      </c>
+      <c r="W31" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X31" s="2">
         <v>45842</v>
       </c>
-      <c r="S31" t="s">
-        <v>184</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="AA31" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I32" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J32" s="2">
         <v>25569</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="N32" t="s">
-        <v>173</v>
-      </c>
-      <c r="O32" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R32" s="2">
+        <v>148</v>
+      </c>
+      <c r="R32" t="s">
+        <v>185</v>
+      </c>
+      <c r="S32" t="s">
+        <v>149</v>
+      </c>
+      <c r="W32" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X32" s="2">
         <v>45843</v>
       </c>
-      <c r="S32" t="s">
-        <v>184</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="AA32" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I33" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J33" s="2">
         <v>25569</v>
       </c>
       <c r="L33" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
-      </c>
-      <c r="O33" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R33" s="2">
+        <v>149</v>
+      </c>
+      <c r="R33" t="s">
+        <v>185</v>
+      </c>
+      <c r="S33" t="s">
+        <v>150</v>
+      </c>
+      <c r="W33" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X33" s="2">
         <v>45844</v>
       </c>
-      <c r="S33" t="s">
-        <v>180</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="AA33" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I34" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J34" s="2">
         <v>25569</v>
       </c>
       <c r="L34" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
-      </c>
-      <c r="O34" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R34" s="2">
+        <v>150</v>
+      </c>
+      <c r="R34" t="s">
+        <v>186</v>
+      </c>
+      <c r="S34" t="s">
+        <v>151</v>
+      </c>
+      <c r="W34" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X34" s="2">
         <v>45845</v>
       </c>
-      <c r="S34" t="s">
-        <v>180</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="AA34" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I35" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J35" s="2">
         <v>25569</v>
       </c>
       <c r="L35" t="s">
-        <v>139</v>
-      </c>
-      <c r="O35" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R35" s="2">
+        <v>204</v>
+      </c>
+      <c r="N35" t="s">
+        <v>151</v>
+      </c>
+      <c r="S35" t="s">
+        <v>152</v>
+      </c>
+      <c r="W35" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X35" s="2">
         <v>45846</v>
       </c>
-      <c r="S35" t="s">
-        <v>180</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="AA35" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I36" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J36" s="2">
         <v>25569</v>
       </c>
-      <c r="L36" t="s">
-        <v>140</v>
-      </c>
-      <c r="O36" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R36" s="2">
+      <c r="N36" t="s">
+        <v>152</v>
+      </c>
+      <c r="S36" t="s">
+        <v>153</v>
+      </c>
+      <c r="W36" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X36" s="2">
         <v>45847</v>
       </c>
-      <c r="S36" t="s">
-        <v>180</v>
-      </c>
-      <c r="U36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="AA36" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I37" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J37" s="2">
         <v>25569</v>
       </c>
-      <c r="L37" t="s">
-        <v>141</v>
-      </c>
-      <c r="O37" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R37" s="2">
+      <c r="N37" t="s">
+        <v>153</v>
+      </c>
+      <c r="S37" t="s">
+        <v>154</v>
+      </c>
+      <c r="W37" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X37" s="2">
         <v>45848</v>
       </c>
-      <c r="S37" t="s">
-        <v>180</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="AA37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I38" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J38" s="2">
         <v>25569</v>
       </c>
-      <c r="L38" t="s">
-        <v>142</v>
-      </c>
-      <c r="O38" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R38" s="2">
+      <c r="N38" t="s">
+        <v>154</v>
+      </c>
+      <c r="S38" t="s">
+        <v>155</v>
+      </c>
+      <c r="W38" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X38" s="2">
         <v>45849</v>
       </c>
-      <c r="S38" t="s">
-        <v>180</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="AA38" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I39" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J39" s="2">
         <v>25569</v>
       </c>
-      <c r="L39" t="s">
-        <v>143</v>
-      </c>
-      <c r="O39" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R39" s="2">
+      <c r="N39" t="s">
+        <v>155</v>
+      </c>
+      <c r="S39" t="s">
+        <v>156</v>
+      </c>
+      <c r="W39" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X39" s="2">
         <v>45850</v>
       </c>
-      <c r="S39" t="s">
-        <v>180</v>
-      </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="AA39" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I40" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J40" s="2">
         <v>25569</v>
       </c>
-      <c r="L40" t="s">
-        <v>144</v>
-      </c>
-      <c r="O40" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R40" s="2">
+      <c r="N40" t="s">
+        <v>156</v>
+      </c>
+      <c r="S40" t="s">
+        <v>157</v>
+      </c>
+      <c r="W40" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X40" s="2">
         <v>45851</v>
       </c>
-      <c r="S40" t="s">
-        <v>180</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="AA40" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I41" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J41" s="2">
         <v>25569</v>
       </c>
-      <c r="L41" t="s">
-        <v>145</v>
-      </c>
-      <c r="O41" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R41" s="2">
+      <c r="N41" t="s">
+        <v>157</v>
+      </c>
+      <c r="S41" t="s">
+        <v>158</v>
+      </c>
+      <c r="W41" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X41" s="2">
         <v>45852</v>
       </c>
-      <c r="S41" t="s">
-        <v>180</v>
-      </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="AA41" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I42" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J42" s="2">
         <v>25569</v>
       </c>
-      <c r="L42" t="s">
-        <v>146</v>
-      </c>
-      <c r="O42" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R42" s="2">
+      <c r="N42" t="s">
+        <v>158</v>
+      </c>
+      <c r="S42" t="s">
+        <v>159</v>
+      </c>
+      <c r="W42" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X42" s="2">
         <v>45853</v>
       </c>
-      <c r="S42" t="s">
-        <v>180</v>
-      </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="U42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="AA42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I43" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J43" s="2">
         <v>25569</v>
       </c>
-      <c r="L43" t="s">
-        <v>147</v>
-      </c>
-      <c r="O43" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R43" s="2">
+      <c r="N43" t="s">
+        <v>159</v>
+      </c>
+      <c r="S43" t="s">
+        <v>160</v>
+      </c>
+      <c r="W43" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X43" s="2">
         <v>45854</v>
       </c>
-      <c r="S43" t="s">
-        <v>180</v>
-      </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="U43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="AA43" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I44" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J44" s="2">
         <v>25569</v>
       </c>
-      <c r="L44" t="s">
-        <v>148</v>
-      </c>
-      <c r="O44" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R44" s="2">
+      <c r="N44" t="s">
+        <v>160</v>
+      </c>
+      <c r="S44" t="s">
+        <v>161</v>
+      </c>
+      <c r="W44" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X44" s="2">
         <v>45855</v>
       </c>
-      <c r="S44" t="s">
-        <v>180</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="AA44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I45" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J45" s="2">
         <v>25569</v>
       </c>
-      <c r="L45" t="s">
-        <v>149</v>
-      </c>
-      <c r="O45" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R45" s="2">
+      <c r="N45" t="s">
+        <v>161</v>
+      </c>
+      <c r="S45" t="s">
+        <v>162</v>
+      </c>
+      <c r="W45" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X45" s="2">
         <v>45856</v>
       </c>
-      <c r="S45" t="s">
-        <v>180</v>
-      </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="AA45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I46" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J46" s="2">
         <v>25569</v>
       </c>
-      <c r="L46" t="s">
-        <v>150</v>
-      </c>
-      <c r="O46" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R46" s="2">
+      <c r="N46" t="s">
+        <v>162</v>
+      </c>
+      <c r="S46" t="s">
+        <v>163</v>
+      </c>
+      <c r="W46" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X46" s="2">
         <v>45857</v>
       </c>
-      <c r="S46" t="s">
-        <v>179</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="AA46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I47" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J47" s="2">
         <v>25569</v>
       </c>
-      <c r="L47" t="s">
-        <v>151</v>
-      </c>
-      <c r="O47" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R47" s="2">
+      <c r="N47" t="s">
+        <v>163</v>
+      </c>
+      <c r="S47" t="s">
+        <v>164</v>
+      </c>
+      <c r="W47" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X47" s="2">
         <v>45858</v>
       </c>
-      <c r="S47" t="s">
-        <v>180</v>
-      </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="U47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="AA47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I48" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J48" s="2">
         <v>25569</v>
       </c>
-      <c r="L48" t="s">
-        <v>152</v>
-      </c>
-      <c r="O48" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R48" s="2">
+      <c r="N48" t="s">
+        <v>164</v>
+      </c>
+      <c r="S48" t="s">
+        <v>165</v>
+      </c>
+      <c r="W48" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X48" s="2">
         <v>45859</v>
       </c>
-      <c r="S48" t="s">
-        <v>181</v>
-      </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="U48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="AA48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I49" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J49" s="2">
         <v>25569</v>
       </c>
-      <c r="L49" t="s">
-        <v>153</v>
-      </c>
-      <c r="O49" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R49" s="2">
+      <c r="N49" t="s">
+        <v>165</v>
+      </c>
+      <c r="S49" t="s">
+        <v>166</v>
+      </c>
+      <c r="W49" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X49" s="2">
         <v>45860</v>
       </c>
-      <c r="S49" t="s">
-        <v>182</v>
-      </c>
-      <c r="T49">
-        <v>1</v>
-      </c>
-      <c r="U49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="AA49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I50" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J50" s="2">
         <v>25569</v>
       </c>
-      <c r="L50" t="s">
-        <v>154</v>
-      </c>
-      <c r="O50" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R50" s="2">
+      <c r="N50" t="s">
+        <v>166</v>
+      </c>
+      <c r="S50" t="s">
+        <v>167</v>
+      </c>
+      <c r="W50" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X50" s="2">
         <v>45861</v>
       </c>
-      <c r="S50" t="s">
-        <v>183</v>
-      </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="AA50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I51" s="2">
-        <v>25569</v>
+        <v>45802</v>
       </c>
       <c r="J51" s="2">
         <v>25569</v>
       </c>
-      <c r="L51" t="s">
-        <v>155</v>
-      </c>
-      <c r="O51" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R51" s="2">
+      <c r="N51" t="s">
+        <v>167</v>
+      </c>
+      <c r="S51" t="s">
+        <v>168</v>
+      </c>
+      <c r="W51" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X51" s="2">
         <v>45862</v>
       </c>
-      <c r="S51" t="s">
-        <v>184</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="AA51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I52" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J52" s="2">
         <v>25569</v>
       </c>
-      <c r="L52" t="s">
-        <v>156</v>
-      </c>
-      <c r="O52" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R52" s="2">
+      <c r="N52" t="s">
+        <v>168</v>
+      </c>
+      <c r="S52" t="s">
+        <v>169</v>
+      </c>
+      <c r="W52" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X52" s="2">
         <v>45863</v>
       </c>
-      <c r="S52" t="s">
-        <v>184</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="AA52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I53" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J53" s="2">
         <v>25569</v>
       </c>
-      <c r="L53" t="s">
-        <v>157</v>
-      </c>
-      <c r="O53" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R53" s="2">
+      <c r="N53" t="s">
+        <v>169</v>
+      </c>
+      <c r="S53" t="s">
+        <v>170</v>
+      </c>
+      <c r="W53" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X53" s="2">
         <v>45864</v>
       </c>
-      <c r="S53" t="s">
-        <v>184</v>
-      </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
-      <c r="U53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="AA53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I54" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J54" s="2">
         <v>25569</v>
       </c>
-      <c r="L54" t="s">
-        <v>158</v>
-      </c>
-      <c r="O54" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R54" s="2">
+      <c r="N54" t="s">
+        <v>170</v>
+      </c>
+      <c r="S54" t="s">
+        <v>171</v>
+      </c>
+      <c r="W54" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X54" s="2">
         <v>45865</v>
       </c>
-      <c r="S54" t="s">
-        <v>184</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="AA54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I55" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J55" s="2">
         <v>25569</v>
       </c>
-      <c r="L55" t="s">
-        <v>159</v>
-      </c>
-      <c r="O55" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R55" s="2">
+      <c r="N55" t="s">
+        <v>171</v>
+      </c>
+      <c r="S55" t="s">
+        <v>172</v>
+      </c>
+      <c r="W55" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X55" s="2">
         <v>45866</v>
       </c>
-      <c r="S55" t="s">
-        <v>180</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="AA55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I56" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J56" s="2">
         <v>25569</v>
       </c>
-      <c r="L56" t="s">
-        <v>160</v>
-      </c>
-      <c r="O56" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R56" s="2">
+      <c r="N56" t="s">
+        <v>172</v>
+      </c>
+      <c r="S56" t="s">
+        <v>173</v>
+      </c>
+      <c r="W56" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X56" s="2">
         <v>45867</v>
       </c>
-      <c r="S56" t="s">
-        <v>180</v>
-      </c>
-      <c r="U56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="AA56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I57" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J57" s="2">
         <v>25569</v>
       </c>
-      <c r="L57" t="s">
-        <v>161</v>
-      </c>
-      <c r="O57" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R57" s="2">
+      <c r="N57" t="s">
+        <v>173</v>
+      </c>
+      <c r="S57" t="s">
+        <v>174</v>
+      </c>
+      <c r="W57" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X57" s="2">
         <v>45868</v>
       </c>
-      <c r="S57" t="s">
-        <v>180</v>
-      </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="U57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="AA57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I58" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J58" s="2">
         <v>25569</v>
       </c>
-      <c r="L58" t="s">
-        <v>162</v>
-      </c>
-      <c r="O58" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R58" s="2">
+      <c r="N58" t="s">
+        <v>174</v>
+      </c>
+      <c r="S58" t="s">
+        <v>175</v>
+      </c>
+      <c r="W58" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X58" s="2">
         <v>45869</v>
       </c>
-      <c r="S58" t="s">
-        <v>180</v>
-      </c>
-      <c r="T58">
-        <v>1</v>
-      </c>
-      <c r="U58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="AA58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="I59" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J59" s="2">
         <v>25569</v>
       </c>
-      <c r="L59" t="s">
-        <v>163</v>
-      </c>
-      <c r="O59" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R59" s="2">
+      <c r="N59" t="s">
+        <v>175</v>
+      </c>
+      <c r="S59" t="s">
+        <v>176</v>
+      </c>
+      <c r="W59" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X59" s="2">
         <v>45870</v>
       </c>
-      <c r="S59" t="s">
-        <v>180</v>
-      </c>
-      <c r="T59">
-        <v>1</v>
-      </c>
-      <c r="U59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="AA59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I60" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J60" s="2">
         <v>25569</v>
       </c>
-      <c r="L60" t="s">
-        <v>164</v>
-      </c>
-      <c r="O60" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R60" s="2">
+      <c r="N60" t="s">
+        <v>176</v>
+      </c>
+      <c r="S60" t="s">
+        <v>177</v>
+      </c>
+      <c r="W60" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X60" s="2">
         <v>45871</v>
       </c>
-      <c r="S60" t="s">
-        <v>180</v>
-      </c>
-      <c r="T60">
-        <v>1</v>
-      </c>
-      <c r="U60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="AA60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I61" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J61" s="2">
         <v>25569</v>
       </c>
-      <c r="L61" t="s">
-        <v>165</v>
-      </c>
-      <c r="O61" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R61" s="2">
+      <c r="N61" t="s">
+        <v>177</v>
+      </c>
+      <c r="S61" t="s">
+        <v>178</v>
+      </c>
+      <c r="W61" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X61" s="2">
         <v>45872</v>
       </c>
-      <c r="S61" t="s">
-        <v>180</v>
-      </c>
-      <c r="T61">
-        <v>1</v>
-      </c>
-      <c r="U61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="AA61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I62" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J62" s="2">
         <v>25569</v>
       </c>
-      <c r="L62" t="s">
-        <v>166</v>
-      </c>
-      <c r="O62" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R62" s="2">
+      <c r="N62" t="s">
+        <v>178</v>
+      </c>
+      <c r="S62" t="s">
+        <v>179</v>
+      </c>
+      <c r="W62" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X62" s="2">
         <v>45873</v>
       </c>
-      <c r="S62" t="s">
-        <v>180</v>
-      </c>
-      <c r="T62">
-        <v>1</v>
-      </c>
-      <c r="U62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="AA62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I63" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J63" s="2">
         <v>25569</v>
       </c>
-      <c r="L63" t="s">
-        <v>167</v>
-      </c>
-      <c r="O63" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R63" s="2">
-        <v>45874</v>
+      <c r="N63" t="s">
+        <v>179</v>
       </c>
       <c r="S63" t="s">
         <v>180</v>
       </c>
-      <c r="T63">
-        <v>1</v>
-      </c>
-      <c r="U63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="W63" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X63" s="2">
+        <v>45874</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I64" s="2">
-        <v>25569</v>
+        <v>45806</v>
       </c>
       <c r="J64" s="2">
         <v>25569</v>
       </c>
-      <c r="L64" t="s">
-        <v>168</v>
-      </c>
-      <c r="O64" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R64" s="2">
+      <c r="N64" t="s">
+        <v>180</v>
+      </c>
+      <c r="S64" t="s">
+        <v>181</v>
+      </c>
+      <c r="W64" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X64" s="2">
         <v>45875</v>
       </c>
-      <c r="S64" t="s">
-        <v>180</v>
-      </c>
-      <c r="T64">
-        <v>1</v>
-      </c>
-      <c r="U64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="AA64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>102</v>
+      </c>
+      <c r="I65" s="2">
+        <v>45806</v>
+      </c>
+      <c r="J65" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N65" t="s">
+        <v>181</v>
+      </c>
+      <c r="S65" t="s">
+        <v>189</v>
+      </c>
+      <c r="W65" s="2">
+        <v>25569</v>
+      </c>
+      <c r="X65" s="2">
+        <v>45876</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>34</v>
       </c>
-      <c r="F65" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" t="s">
-        <v>59</v>
-      </c>
-      <c r="H65" t="s">
-        <v>90</v>
-      </c>
-      <c r="I65" s="2">
-        <v>25569</v>
-      </c>
-      <c r="J65" s="2">
-        <v>25569</v>
-      </c>
-      <c r="L65" t="s">
-        <v>169</v>
-      </c>
-      <c r="O65" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>25569</v>
-      </c>
-      <c r="R65" s="2">
-        <v>45876</v>
-      </c>
-      <c r="S65" t="s">
-        <v>180</v>
-      </c>
-      <c r="T65">
-        <v>1</v>
-      </c>
-      <c r="U65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I66" s="2">
-        <v>45813</v>
+        <v>45806</v>
       </c>
       <c r="J66" s="2">
         <v>45814</v>
       </c>
-      <c r="L66" t="s">
-        <v>170</v>
-      </c>
-      <c r="O66" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q66" s="2">
+      <c r="N66" t="s">
+        <v>182</v>
+      </c>
+      <c r="S66" t="s">
+        <v>190</v>
+      </c>
+      <c r="W66" s="2">
         <v>45820</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I67" s="2">
-        <v>45813</v>
+        <v>45806</v>
       </c>
       <c r="J67" s="2">
         <v>45814</v>
       </c>
-      <c r="L67" t="s">
-        <v>171</v>
-      </c>
-      <c r="O67" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q67" s="2">
+      <c r="N67" t="s">
+        <v>183</v>
+      </c>
+      <c r="S67" t="s">
+        <v>182</v>
+      </c>
+      <c r="W67" s="2">
         <v>45818</v>
-      </c>
-      <c r="U67" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="205">
   <si>
     <t>Ref</t>
   </si>
@@ -666,12 +666,6 @@
   </si>
   <si>
     <t>fiable,Bien</t>
-  </si>
-  <si>
-    <t>Resp1</t>
-  </si>
-  <si>
-    <t>Resp0</t>
   </si>
   <si>
     <t>RespC1</t>
@@ -739,12 +733,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,13 +1049,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="4"/>
+    <col min="30" max="30" width="9.140625" style="4"/>
+    <col min="32" max="32" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1136,7 +1137,7 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -1148,13 +1149,13 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
@@ -1198,11 +1199,8 @@
       <c r="K2" s="2">
         <v>45837</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>203</v>
-      </c>
-      <c r="M2" t="s">
-        <v>205</v>
       </c>
       <c r="N2" t="s">
         <v>118</v>
@@ -1260,11 +1258,8 @@
       <c r="J3" s="2">
         <v>45837</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>203</v>
-      </c>
-      <c r="M3" t="s">
-        <v>205</v>
       </c>
       <c r="N3" t="s">
         <v>119</v>
@@ -1319,11 +1314,8 @@
       <c r="J4" s="2">
         <v>45838</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>203</v>
-      </c>
-      <c r="M4" t="s">
-        <v>205</v>
       </c>
       <c r="N4" t="s">
         <v>120</v>
@@ -1378,11 +1370,8 @@
       <c r="J5" s="2">
         <v>45839</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>203</v>
-      </c>
-      <c r="M5" t="s">
-        <v>205</v>
       </c>
       <c r="N5" t="s">
         <v>121</v>
@@ -1437,11 +1426,8 @@
       <c r="J6" s="2">
         <v>45840</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>203</v>
-      </c>
-      <c r="M6" t="s">
-        <v>205</v>
       </c>
       <c r="N6" t="s">
         <v>122</v>
@@ -1493,11 +1479,8 @@
       <c r="J7" s="2">
         <v>45841</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>203</v>
-      </c>
-      <c r="M7" t="s">
-        <v>205</v>
       </c>
       <c r="N7" t="s">
         <v>123</v>
@@ -1549,11 +1532,8 @@
       <c r="J8" s="2">
         <v>45842</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>203</v>
-      </c>
-      <c r="M8" t="s">
-        <v>205</v>
       </c>
       <c r="N8" t="s">
         <v>124</v>
@@ -1605,11 +1585,8 @@
       <c r="J9" s="2">
         <v>45843</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>203</v>
-      </c>
-      <c r="M9" t="s">
-        <v>205</v>
       </c>
       <c r="N9" t="s">
         <v>125</v>
@@ -1661,11 +1638,8 @@
       <c r="J10" s="2">
         <v>45844</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>203</v>
-      </c>
-      <c r="M10" t="s">
-        <v>205</v>
       </c>
       <c r="N10" t="s">
         <v>126</v>
@@ -1717,11 +1691,8 @@
       <c r="J11" s="2">
         <v>45845</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>203</v>
-      </c>
-      <c r="M11" t="s">
-        <v>205</v>
       </c>
       <c r="N11" t="s">
         <v>127</v>
@@ -1773,11 +1744,8 @@
       <c r="J12" s="2">
         <v>45846</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>203</v>
-      </c>
-      <c r="M12" t="s">
-        <v>205</v>
       </c>
       <c r="N12" t="s">
         <v>128</v>
@@ -1829,11 +1797,8 @@
       <c r="J13" s="2">
         <v>45847</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>203</v>
-      </c>
-      <c r="M13" t="s">
-        <v>205</v>
       </c>
       <c r="N13" t="s">
         <v>129</v>
@@ -1885,11 +1850,8 @@
       <c r="J14" s="2">
         <v>45848</v>
       </c>
-      <c r="L14" t="s">
-        <v>203</v>
-      </c>
       <c r="M14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N14" t="s">
         <v>130</v>
@@ -1941,11 +1903,8 @@
       <c r="J15" s="2">
         <v>45849</v>
       </c>
-      <c r="L15" t="s">
-        <v>203</v>
-      </c>
       <c r="M15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N15" t="s">
         <v>131</v>
@@ -1997,11 +1956,8 @@
       <c r="J16" s="2">
         <v>45850</v>
       </c>
-      <c r="L16" t="s">
-        <v>203</v>
-      </c>
       <c r="M16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N16" t="s">
         <v>132</v>
@@ -2053,11 +2009,8 @@
       <c r="J17" s="2">
         <v>45851</v>
       </c>
-      <c r="L17" t="s">
-        <v>203</v>
-      </c>
       <c r="M17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s">
         <v>133</v>
@@ -2109,11 +2062,8 @@
       <c r="J18" s="2">
         <v>45852</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>204</v>
-      </c>
-      <c r="M18" t="s">
-        <v>206</v>
       </c>
       <c r="N18" t="s">
         <v>134</v>
@@ -2165,11 +2115,8 @@
       <c r="J19" s="2">
         <v>45853</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>204</v>
-      </c>
-      <c r="M19" t="s">
-        <v>206</v>
       </c>
       <c r="N19" t="s">
         <v>135</v>
@@ -2224,11 +2171,8 @@
       <c r="J20" s="2">
         <v>45854</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>204</v>
-      </c>
-      <c r="M20" t="s">
-        <v>206</v>
       </c>
       <c r="N20" t="s">
         <v>136</v>
@@ -2280,11 +2224,8 @@
       <c r="J21" s="2">
         <v>45855</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>204</v>
-      </c>
-      <c r="M21" t="s">
-        <v>206</v>
       </c>
       <c r="N21" t="s">
         <v>137</v>
@@ -2336,11 +2277,8 @@
       <c r="J22" s="2">
         <v>45856</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>204</v>
-      </c>
-      <c r="M22" t="s">
-        <v>206</v>
       </c>
       <c r="N22" t="s">
         <v>138</v>
@@ -2389,11 +2327,8 @@
       <c r="J23" s="2">
         <v>45857</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>204</v>
-      </c>
-      <c r="M23" t="s">
-        <v>206</v>
       </c>
       <c r="N23" t="s">
         <v>139</v>
@@ -2445,11 +2380,8 @@
       <c r="J24" s="2">
         <v>25569</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>204</v>
-      </c>
-      <c r="M24" t="s">
-        <v>206</v>
       </c>
       <c r="N24" t="s">
         <v>140</v>
@@ -2501,11 +2433,8 @@
       <c r="J25" s="2">
         <v>25569</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>204</v>
-      </c>
-      <c r="M25" t="s">
-        <v>206</v>
       </c>
       <c r="N25" t="s">
         <v>141</v>
@@ -2557,11 +2486,8 @@
       <c r="J26" s="2">
         <v>25569</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>204</v>
-      </c>
-      <c r="M26" t="s">
-        <v>206</v>
       </c>
       <c r="N26" t="s">
         <v>142</v>
@@ -2613,11 +2539,8 @@
       <c r="J27" s="2">
         <v>25569</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>204</v>
-      </c>
-      <c r="M27" t="s">
-        <v>206</v>
       </c>
       <c r="N27" t="s">
         <v>143</v>
@@ -2669,9 +2592,6 @@
       <c r="J28" s="2">
         <v>25569</v>
       </c>
-      <c r="L28" t="s">
-        <v>204</v>
-      </c>
       <c r="N28" t="s">
         <v>144</v>
       </c>
@@ -2722,9 +2642,6 @@
       <c r="J29" s="2">
         <v>25569</v>
       </c>
-      <c r="L29" t="s">
-        <v>204</v>
-      </c>
       <c r="N29" t="s">
         <v>145</v>
       </c>
@@ -2775,9 +2692,6 @@
       <c r="J30" s="2">
         <v>25569</v>
       </c>
-      <c r="L30" t="s">
-        <v>204</v>
-      </c>
       <c r="N30" t="s">
         <v>146</v>
       </c>
@@ -2831,9 +2745,6 @@
       <c r="J31" s="2">
         <v>25569</v>
       </c>
-      <c r="L31" t="s">
-        <v>204</v>
-      </c>
       <c r="N31" t="s">
         <v>147</v>
       </c>
@@ -2887,9 +2798,6 @@
       <c r="J32" s="2">
         <v>25569</v>
       </c>
-      <c r="L32" t="s">
-        <v>204</v>
-      </c>
       <c r="N32" t="s">
         <v>148</v>
       </c>
@@ -2943,9 +2851,6 @@
       <c r="J33" s="2">
         <v>25569</v>
       </c>
-      <c r="L33" t="s">
-        <v>204</v>
-      </c>
       <c r="N33" t="s">
         <v>149</v>
       </c>
@@ -2999,9 +2904,6 @@
       <c r="J34" s="2">
         <v>25569</v>
       </c>
-      <c r="L34" t="s">
-        <v>204</v>
-      </c>
       <c r="N34" t="s">
         <v>150</v>
       </c>
@@ -3054,9 +2956,6 @@
       </c>
       <c r="J35" s="2">
         <v>25569</v>
-      </c>
-      <c r="L35" t="s">
-        <v>204</v>
       </c>
       <c r="N35" t="s">
         <v>151</v>
